--- a/Code/Results/Cases/Case_0_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9406438357598944</v>
+        <v>1.012616368629892</v>
       </c>
       <c r="D2">
-        <v>0.9529476967835795</v>
+        <v>1.014951748384149</v>
       </c>
       <c r="E2">
-        <v>0.9545657314772701</v>
+        <v>1.014561587700151</v>
       </c>
       <c r="F2">
-        <v>0.9601567919082848</v>
+        <v>1.024226717424432</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042228476182619</v>
+        <v>1.025614726846036</v>
       </c>
       <c r="J2">
-        <v>0.9647573866748403</v>
+        <v>1.017858058543444</v>
       </c>
       <c r="K2">
-        <v>0.9651039416410563</v>
+        <v>1.017808361925375</v>
       </c>
       <c r="L2">
-        <v>0.9666965522656544</v>
+        <v>1.017419369709943</v>
       </c>
       <c r="M2">
-        <v>0.9722006031160634</v>
+        <v>1.027055839190686</v>
       </c>
       <c r="N2">
-        <v>0.9908714893549283</v>
+        <v>1.009848667107345</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.019999999999999</v>
       </c>
       <c r="C3">
-        <v>0.9496515501780144</v>
+        <v>1.014336710421654</v>
       </c>
       <c r="D3">
-        <v>0.9607226329693934</v>
+        <v>1.0164892599011</v>
       </c>
       <c r="E3">
-        <v>0.9620732468551717</v>
+        <v>1.01604693357694</v>
       </c>
       <c r="F3">
-        <v>0.9691017581525297</v>
+        <v>1.025940885736105</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042864102141985</v>
+        <v>1.02562406900283</v>
       </c>
       <c r="J3">
-        <v>0.9716156615138063</v>
+        <v>1.019208087110867</v>
       </c>
       <c r="K3">
-        <v>0.9718840295384528</v>
+        <v>1.019148899339987</v>
       </c>
       <c r="L3">
-        <v>0.9732155645241862</v>
+        <v>1.01870779971146</v>
       </c>
       <c r="M3">
-        <v>0.9801458730959132</v>
+        <v>1.02857458687054</v>
       </c>
       <c r="N3">
-        <v>0.9933469850384076</v>
+        <v>1.010317550314682</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9552679687595538</v>
+        <v>1.01544737782087</v>
       </c>
       <c r="D4">
-        <v>0.9655781071331099</v>
+        <v>1.017482030988258</v>
       </c>
       <c r="E4">
-        <v>0.9667626119582317</v>
+        <v>1.017006017568406</v>
       </c>
       <c r="F4">
-        <v>0.9746759173143621</v>
+        <v>1.027045749846167</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043241269593542</v>
+        <v>1.025627403614609</v>
       </c>
       <c r="J4">
-        <v>0.97588952454477</v>
+        <v>1.020078946968908</v>
       </c>
       <c r="K4">
-        <v>0.9761105289912778</v>
+        <v>1.02001374577063</v>
       </c>
       <c r="L4">
-        <v>0.9772794560454108</v>
+        <v>1.019538984545457</v>
       </c>
       <c r="M4">
-        <v>0.985089906218342</v>
+        <v>1.029552571846218</v>
       </c>
       <c r="N4">
-        <v>0.9948869455997316</v>
+        <v>1.010619419461055</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9575818976323767</v>
+        <v>1.015913716453364</v>
       </c>
       <c r="D5">
-        <v>0.9675802258121949</v>
+        <v>1.017898900822223</v>
       </c>
       <c r="E5">
-        <v>0.9686964289001696</v>
+        <v>1.017408740943059</v>
       </c>
       <c r="F5">
-        <v>0.9769713974243228</v>
+        <v>1.027509214354519</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.043391901861124</v>
+        <v>1.025628156525223</v>
       </c>
       <c r="J5">
-        <v>0.9776496485124688</v>
+        <v>1.02044442157123</v>
       </c>
       <c r="K5">
-        <v>0.9778514623389841</v>
+        <v>1.020376722746439</v>
       </c>
       <c r="L5">
-        <v>0.9789534305730646</v>
+        <v>1.019887822947322</v>
       </c>
       <c r="M5">
-        <v>0.9871241333512729</v>
+        <v>1.029962592260365</v>
       </c>
       <c r="N5">
-        <v>0.9955204591559349</v>
+        <v>1.010745962822157</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9579677447699559</v>
+        <v>1.015991982825428</v>
       </c>
       <c r="D6">
-        <v>0.9679141740983144</v>
+        <v>1.01796886664849</v>
       </c>
       <c r="E6">
-        <v>0.9690189953066023</v>
+        <v>1.017476332414375</v>
       </c>
       <c r="F6">
-        <v>0.9773540992563354</v>
+        <v>1.027586972631757</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.04341673523233</v>
+        <v>1.02562824488384</v>
       </c>
       <c r="J6">
-        <v>0.9779431055969849</v>
+        <v>1.020505749459904</v>
       </c>
       <c r="K6">
-        <v>0.9781417381198629</v>
+        <v>1.020437633050004</v>
       </c>
       <c r="L6">
-        <v>0.979232542814817</v>
+        <v>1.019946360056056</v>
       </c>
       <c r="M6">
-        <v>0.9874631741579848</v>
+        <v>1.030031370893023</v>
       </c>
       <c r="N6">
-        <v>0.9956260395696761</v>
+        <v>1.01076718886517</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9552990686628333</v>
+        <v>1.015453611342787</v>
       </c>
       <c r="D7">
-        <v>0.965605009693345</v>
+        <v>1.017487603136696</v>
       </c>
       <c r="E7">
-        <v>0.9667885960124735</v>
+        <v>1.017011400630667</v>
       </c>
       <c r="F7">
-        <v>0.9747067737372636</v>
+        <v>1.027051946672684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043243313205147</v>
+        <v>1.025627416225004</v>
       </c>
       <c r="J7">
-        <v>0.9759131839853064</v>
+        <v>1.020083832937655</v>
       </c>
       <c r="K7">
-        <v>0.9761339292367059</v>
+        <v>1.020018598246746</v>
       </c>
       <c r="L7">
-        <v>0.9773019562163646</v>
+        <v>1.01954364805179</v>
       </c>
       <c r="M7">
-        <v>0.9851172578588648</v>
+        <v>1.029558054961128</v>
       </c>
       <c r="N7">
-        <v>0.9948954640555208</v>
+        <v>1.010621111758523</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.943734253057699</v>
+        <v>1.013198294515499</v>
       </c>
       <c r="D8">
-        <v>0.9556134298178059</v>
+        <v>1.015471800028863</v>
       </c>
       <c r="E8">
-        <v>0.9571395712123912</v>
+        <v>1.015063995383784</v>
       </c>
       <c r="F8">
-        <v>0.9632261614997628</v>
+        <v>1.024806930588285</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.042450508431194</v>
+        <v>1.025618445230591</v>
       </c>
       <c r="J8">
-        <v>0.9671107861396949</v>
+        <v>1.018314872639466</v>
       </c>
       <c r="K8">
-        <v>0.9674302156667676</v>
+        <v>1.018261941808386</v>
       </c>
       <c r="L8">
-        <v>0.9689332127558703</v>
+        <v>1.017855327880315</v>
       </c>
       <c r="M8">
-        <v>0.9749284261828757</v>
+        <v>1.027570096988831</v>
       </c>
       <c r="N8">
-        <v>0.9917214884834502</v>
+        <v>1.010007447386833</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9215451812404355</v>
+        <v>1.009204262922068</v>
       </c>
       <c r="D9">
-        <v>0.9365150119729225</v>
+        <v>1.011903059276468</v>
       </c>
       <c r="E9">
-        <v>0.9387045555547534</v>
+        <v>1.011616323890894</v>
       </c>
       <c r="F9">
-        <v>0.9411880654513454</v>
+        <v>1.020817260761663</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040779673528085</v>
+        <v>1.025581881155255</v>
       </c>
       <c r="J9">
-        <v>0.9502087567727828</v>
+        <v>1.015176561205916</v>
       </c>
       <c r="K9">
-        <v>0.9507295294932581</v>
+        <v>1.015146301527313</v>
       </c>
       <c r="L9">
-        <v>0.9528770903306247</v>
+        <v>1.014860551426519</v>
       </c>
       <c r="M9">
-        <v>0.9553132900582849</v>
+        <v>1.024030175273478</v>
       </c>
       <c r="N9">
-        <v>0.9856073252829903</v>
+        <v>1.008914206688083</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9052279431782712</v>
+        <v>1.006527283811466</v>
       </c>
       <c r="D10">
-        <v>0.9225344980477624</v>
+        <v>1.00951195047099</v>
       </c>
       <c r="E10">
-        <v>0.9252176996518993</v>
+        <v>1.009306329827307</v>
       </c>
       <c r="F10">
-        <v>0.9249996202160066</v>
+        <v>1.018134002215356</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039461109015237</v>
+        <v>1.025543549880452</v>
       </c>
       <c r="J10">
-        <v>0.9377809721595327</v>
+        <v>1.013069402028214</v>
       </c>
       <c r="K10">
-        <v>0.9384590098311849</v>
+        <v>1.013054936227039</v>
       </c>
       <c r="L10">
-        <v>0.9410825440517552</v>
+        <v>1.012850093721056</v>
       </c>
       <c r="M10">
-        <v>0.9408692969330357</v>
+        <v>1.021644672363744</v>
       </c>
       <c r="N10">
-        <v>0.981102394248668</v>
+        <v>1.008177147931276</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8977139055729971</v>
+        <v>1.005364524799332</v>
       </c>
       <c r="D11">
-        <v>0.9161157486282167</v>
+        <v>1.008473569286867</v>
       </c>
       <c r="E11">
-        <v>0.9190280997978441</v>
+        <v>1.008303175684863</v>
       </c>
       <c r="F11">
-        <v>0.9175559081876673</v>
+        <v>1.016966362675369</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.038835833999417</v>
+        <v>1.02552364101932</v>
       </c>
       <c r="J11">
-        <v>0.9320613025737243</v>
+        <v>1.012153272680669</v>
       </c>
       <c r="K11">
-        <v>0.9328142224317502</v>
+        <v>1.012145810182201</v>
       </c>
       <c r="L11">
-        <v>0.9356576051935609</v>
+        <v>1.011976087258644</v>
       </c>
       <c r="M11">
-        <v>0.9342202037033897</v>
+        <v>1.020605491634995</v>
       </c>
       <c r="N11">
-        <v>0.9790279781326723</v>
+        <v>1.007855986833456</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8948462697120548</v>
+        <v>1.004932064063981</v>
       </c>
       <c r="D12">
-        <v>0.9136694198028557</v>
+        <v>1.00808740046253</v>
       </c>
       <c r="E12">
-        <v>0.9166695416147193</v>
+        <v>1.007930108052128</v>
       </c>
       <c r="F12">
-        <v>0.9147174544743308</v>
+        <v>1.016531765764861</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.038594810442017</v>
+        <v>1.02551574831709</v>
       </c>
       <c r="J12">
-        <v>0.929879260850745</v>
+        <v>1.011812409358825</v>
       </c>
       <c r="K12">
-        <v>0.9306611567216754</v>
+        <v>1.011807573179005</v>
       </c>
       <c r="L12">
-        <v>0.9335885615087858</v>
+        <v>1.011650908768209</v>
       </c>
       <c r="M12">
-        <v>0.9316837162217076</v>
+        <v>1.020218540931337</v>
       </c>
       <c r="N12">
-        <v>0.9782365380626631</v>
+        <v>1.007736386633383</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8954650208081625</v>
+        <v>1.005024854004098</v>
       </c>
       <c r="D13">
-        <v>0.9141971089321315</v>
+        <v>1.00817025639555</v>
       </c>
       <c r="E13">
-        <v>0.9171782772686203</v>
+        <v>1.008010152986128</v>
       </c>
       <c r="F13">
-        <v>0.9153297910990138</v>
+        <v>1.016625028530645</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.038646918609908</v>
+        <v>1.025517463852392</v>
       </c>
       <c r="J13">
-        <v>0.9303500396547735</v>
+        <v>1.01188555181133</v>
       </c>
       <c r="K13">
-        <v>0.9311256649036475</v>
+        <v>1.011880151142411</v>
       </c>
       <c r="L13">
-        <v>0.934034934472932</v>
+        <v>1.011720685013948</v>
       </c>
       <c r="M13">
-        <v>0.9322309553169722</v>
+        <v>1.020301586524168</v>
       </c>
       <c r="N13">
-        <v>0.9784072929786405</v>
+        <v>1.007762055236113</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8974784879779817</v>
+        <v>1.005328788994164</v>
       </c>
       <c r="D14">
-        <v>0.9159148486400563</v>
+        <v>1.008441658081015</v>
       </c>
       <c r="E14">
-        <v>0.9188343985827498</v>
+        <v>1.008272347090997</v>
       </c>
       <c r="F14">
-        <v>0.917322834571791</v>
+        <v>1.016930456881038</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.038816093711419</v>
+        <v>1.025522998759562</v>
       </c>
       <c r="J14">
-        <v>0.9318821505628644</v>
+        <v>1.012125108563521</v>
       </c>
       <c r="K14">
-        <v>0.9326374409650249</v>
+        <v>1.012117862646188</v>
       </c>
       <c r="L14">
-        <v>0.9354877189413111</v>
+        <v>1.011949218863701</v>
       </c>
       <c r="M14">
-        <v>0.9340119458870766</v>
+        <v>1.020573525691029</v>
       </c>
       <c r="N14">
-        <v>0.9789629990030538</v>
+        <v>1.007846106927079</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8987085969132941</v>
+        <v>1.005515978589962</v>
       </c>
       <c r="D15">
-        <v>0.9169647319227365</v>
+        <v>1.008608815180387</v>
       </c>
       <c r="E15">
-        <v>0.9198466798772221</v>
+        <v>1.008433833277086</v>
       </c>
       <c r="F15">
-        <v>0.9185407949587457</v>
+        <v>1.017118523782957</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.038919146064631</v>
+        <v>1.025526343046663</v>
       </c>
       <c r="J15">
-        <v>0.9328182935872622</v>
+        <v>1.012272631159239</v>
       </c>
       <c r="K15">
-        <v>0.9335612136796624</v>
+        <v>1.012264251641822</v>
       </c>
       <c r="L15">
-        <v>0.9363754676094356</v>
+        <v>1.012089955015729</v>
       </c>
       <c r="M15">
-        <v>0.9351001861027332</v>
+        <v>1.020740949694357</v>
       </c>
       <c r="N15">
-        <v>0.9793025401896046</v>
+        <v>1.007897853169119</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9057164294127736</v>
+        <v>1.006604374720592</v>
       </c>
       <c r="D16">
-        <v>0.9229522078204762</v>
+        <v>1.009580799621898</v>
       </c>
       <c r="E16">
-        <v>0.9256205534503111</v>
+        <v>1.009372843322618</v>
       </c>
       <c r="F16">
-        <v>0.9254838158235799</v>
+        <v>1.018211371609603</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039501412592909</v>
+        <v>1.025544801387166</v>
       </c>
       <c r="J16">
-        <v>0.9381528984401029</v>
+        <v>1.013130123053414</v>
       </c>
       <c r="K16">
-        <v>0.9388261208497627</v>
+        <v>1.013115195954131</v>
       </c>
       <c r="L16">
-        <v>0.9414353779813732</v>
+        <v>1.012908024541931</v>
       </c>
       <c r="M16">
-        <v>0.9413016572891445</v>
+        <v>1.021713506583702</v>
       </c>
       <c r="N16">
-        <v>0.9812372711420788</v>
+        <v>1.008198419590101</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9099862087984659</v>
+        <v>1.007286117882089</v>
       </c>
       <c r="D17">
-        <v>0.926605532629476</v>
+        <v>1.010189682105837</v>
       </c>
       <c r="E17">
-        <v>0.9291442327017793</v>
+        <v>1.009961070128389</v>
       </c>
       <c r="F17">
-        <v>0.9297173931263012</v>
+        <v>1.01889532950999</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039851713677457</v>
+        <v>1.025555493191461</v>
       </c>
       <c r="J17">
-        <v>0.9414042437948649</v>
+        <v>1.013667000569308</v>
       </c>
       <c r="K17">
-        <v>0.9420356547401325</v>
+        <v>1.013648010564697</v>
       </c>
       <c r="L17">
-        <v>0.9445201943812089</v>
+        <v>1.013420241134484</v>
       </c>
       <c r="M17">
-        <v>0.9450811812428801</v>
+        <v>1.022321884159034</v>
       </c>
       <c r="N17">
-        <v>0.9824162410243505</v>
+        <v>1.008386415573326</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.912434124815578</v>
+        <v>1.007683420106069</v>
       </c>
       <c r="D18">
-        <v>0.9287017857427781</v>
+        <v>1.010544543034266</v>
       </c>
       <c r="E18">
-        <v>0.9311663245440288</v>
+        <v>1.010303892918888</v>
       </c>
       <c r="F18">
-        <v>0.9321455291530384</v>
+        <v>1.019293714907617</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040050842874555</v>
+        <v>1.025561410076097</v>
       </c>
       <c r="J18">
-        <v>0.9432685630602057</v>
+        <v>1.013979794593293</v>
       </c>
       <c r="K18">
-        <v>0.9438762297952268</v>
+        <v>1.01395845061309</v>
       </c>
       <c r="L18">
-        <v>0.9462893277152951</v>
+        <v>1.013718674969692</v>
       </c>
       <c r="M18">
-        <v>0.947248193687782</v>
+        <v>1.022676139238386</v>
       </c>
       <c r="N18">
-        <v>0.9830921514372151</v>
+        <v>1.00849587685598</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9132618307787589</v>
+        <v>1.00781883157661</v>
       </c>
       <c r="D19">
-        <v>0.9294108722612374</v>
+        <v>1.010665492709685</v>
       </c>
       <c r="E19">
-        <v>0.9318503621267817</v>
+        <v>1.010420739570279</v>
       </c>
       <c r="F19">
-        <v>0.9329666939632254</v>
+        <v>1.019429460279187</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040117876179086</v>
+        <v>1.025563373399619</v>
       </c>
       <c r="J19">
-        <v>0.9438989794319048</v>
+        <v>1.014086389043117</v>
       </c>
       <c r="K19">
-        <v>0.9444986553398977</v>
+        <v>1.014064245098002</v>
       </c>
       <c r="L19">
-        <v>0.9468876066045127</v>
+        <v>1.01382037702934</v>
       </c>
       <c r="M19">
-        <v>0.9479809278523081</v>
+        <v>1.022796829527244</v>
       </c>
       <c r="N19">
-        <v>0.9833206877181834</v>
+        <v>1.0085331676296</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9095325663341072</v>
+        <v>1.007213009317406</v>
       </c>
       <c r="D20">
-        <v>0.9262171996286297</v>
+        <v>1.01012438487267</v>
       </c>
       <c r="E20">
-        <v>0.9287696563005933</v>
+        <v>1.009897988017736</v>
       </c>
       <c r="F20">
-        <v>0.929267490942586</v>
+        <v>1.01882200489584</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039814671108604</v>
+        <v>1.025554379107118</v>
       </c>
       <c r="J20">
-        <v>0.9410587732925664</v>
+        <v>1.013609435775806</v>
       </c>
       <c r="K20">
-        <v>0.9416946026971166</v>
+        <v>1.013590880041246</v>
       </c>
       <c r="L20">
-        <v>0.9441923865314867</v>
+        <v>1.013365319724451</v>
       </c>
       <c r="M20">
-        <v>0.9446796040817272</v>
+        <v>1.022256673302155</v>
       </c>
       <c r="N20">
-        <v>0.9822909807550267</v>
+        <v>1.008366265441878</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.896887769302782</v>
+        <v>1.005239303326624</v>
       </c>
       <c r="D21">
-        <v>0.9154107973952136</v>
+        <v>1.008361750083004</v>
       </c>
       <c r="E21">
-        <v>0.9183484160486113</v>
+        <v>1.00819515004035</v>
       </c>
       <c r="F21">
-        <v>0.9167380376264466</v>
+        <v>1.016840540370336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.038766523364124</v>
+        <v>1.025521382607082</v>
       </c>
       <c r="J21">
-        <v>0.9314326295107684</v>
+        <v>1.012054580975586</v>
       </c>
       <c r="K21">
-        <v>0.9321938746651703</v>
+        <v>1.01204787774613</v>
       </c>
       <c r="L21">
-        <v>0.935061456365902</v>
+        <v>1.011881936175436</v>
       </c>
       <c r="M21">
-        <v>0.9334893970412022</v>
+        <v>1.020493472804374</v>
       </c>
       <c r="N21">
-        <v>0.978799955498346</v>
+        <v>1.007821364302786</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8884883724793027</v>
+        <v>1.003995105439615</v>
       </c>
       <c r="D22">
-        <v>0.9082522613543742</v>
+        <v>1.007250797516983</v>
       </c>
       <c r="E22">
-        <v>0.9114476286686332</v>
+        <v>1.007121888762575</v>
       </c>
       <c r="F22">
-        <v>0.9084294669346361</v>
+        <v>1.015589594384469</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.038056388069092</v>
+        <v>1.025497756943018</v>
       </c>
       <c r="J22">
-        <v>0.9250432718848666</v>
+        <v>1.011073665111369</v>
       </c>
       <c r="K22">
-        <v>0.9258901848622257</v>
+        <v>1.01107455868811</v>
       </c>
       <c r="L22">
-        <v>0.9290041235464067</v>
+        <v>1.010946180410871</v>
       </c>
       <c r="M22">
-        <v>0.9260628543622085</v>
+        <v>1.01937935904964</v>
       </c>
       <c r="N22">
-        <v>0.9764825314853468</v>
+        <v>1.007476986657298</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8929871998744233</v>
+        <v>1.004654992461465</v>
       </c>
       <c r="D23">
-        <v>0.9120844711019321</v>
+        <v>1.00783999674686</v>
       </c>
       <c r="E23">
-        <v>0.9151415902470025</v>
+        <v>1.007691097918564</v>
       </c>
       <c r="F23">
-        <v>0.9128780603119681</v>
+        <v>1.016253235488904</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.038437924458451</v>
+        <v>1.025510554367596</v>
       </c>
       <c r="J23">
-        <v>0.9284649247344097</v>
+        <v>1.011593986253805</v>
       </c>
       <c r="K23">
-        <v>0.9292657218790658</v>
+        <v>1.011590838814952</v>
       </c>
       <c r="L23">
-        <v>0.9322476341417752</v>
+        <v>1.011442539868393</v>
       </c>
       <c r="M23">
-        <v>0.9300397231454107</v>
+        <v>1.019970500050908</v>
       </c>
       <c r="N23">
-        <v>0.9777235494339219</v>
+        <v>1.007659717762466</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9097376787255012</v>
+        <v>1.007246045002887</v>
       </c>
       <c r="D24">
-        <v>0.9263927771990897</v>
+        <v>1.010153890777343</v>
       </c>
       <c r="E24">
-        <v>0.928939013372912</v>
+        <v>1.009926492973108</v>
       </c>
       <c r="F24">
-        <v>0.9294709091975328</v>
+        <v>1.018855138849662</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039831425061879</v>
+        <v>1.02555488350111</v>
       </c>
       <c r="J24">
-        <v>0.9412149753584228</v>
+        <v>1.013635447932779</v>
       </c>
       <c r="K24">
-        <v>0.941848806272631</v>
+        <v>1.013616695921315</v>
       </c>
       <c r="L24">
-        <v>0.9443406016184962</v>
+        <v>1.013390137375741</v>
       </c>
       <c r="M24">
-        <v>0.9448611749163423</v>
+        <v>1.022286141139235</v>
       </c>
       <c r="N24">
-        <v>0.9823476166585273</v>
+        <v>1.008375371017097</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9275247886181364</v>
+        <v>1.010239266101591</v>
       </c>
       <c r="D25">
-        <v>0.9416521225560325</v>
+        <v>1.012827713909171</v>
       </c>
       <c r="E25">
-        <v>0.9436620372239207</v>
+        <v>1.012509611077539</v>
       </c>
       <c r="F25">
-        <v>0.9471259278007281</v>
+        <v>1.021852761726391</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.0412459966518</v>
+        <v>1.025593793441133</v>
       </c>
       <c r="J25">
-        <v>0.9547641552221997</v>
+        <v>1.01599047247932</v>
       </c>
       <c r="K25">
-        <v>0.9552291993457325</v>
+        <v>1.015954232988888</v>
       </c>
       <c r="L25">
-        <v>0.9572027823053323</v>
+        <v>1.015637180550932</v>
       </c>
       <c r="M25">
-        <v>0.9606045286080872</v>
+        <v>1.024949778147189</v>
       </c>
       <c r="N25">
-        <v>0.9872570792044189</v>
+        <v>1.009198268687294</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_198/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_198/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.012616368629892</v>
+        <v>0.9406438357598931</v>
       </c>
       <c r="D2">
-        <v>1.014951748384149</v>
+        <v>0.9529476967835783</v>
       </c>
       <c r="E2">
-        <v>1.014561587700151</v>
+        <v>0.9545657314772686</v>
       </c>
       <c r="F2">
-        <v>1.024226717424432</v>
+        <v>0.960156791908284</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.025614726846036</v>
+        <v>1.042228476182619</v>
       </c>
       <c r="J2">
-        <v>1.017858058543444</v>
+        <v>0.964757386674839</v>
       </c>
       <c r="K2">
-        <v>1.017808361925375</v>
+        <v>0.9651039416410551</v>
       </c>
       <c r="L2">
-        <v>1.017419369709943</v>
+        <v>0.9666965522656529</v>
       </c>
       <c r="M2">
-        <v>1.027055839190686</v>
+        <v>0.9722006031160625</v>
       </c>
       <c r="N2">
-        <v>1.009848667107345</v>
+        <v>0.9908714893549277</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.019999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.014336710421654</v>
+        <v>0.9496515501780155</v>
       </c>
       <c r="D3">
-        <v>1.0164892599011</v>
+        <v>0.9607226329693944</v>
       </c>
       <c r="E3">
-        <v>1.01604693357694</v>
+        <v>0.9620732468551728</v>
       </c>
       <c r="F3">
-        <v>1.025940885736105</v>
+        <v>0.9691017581525309</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.02562406900283</v>
+        <v>1.042864102141985</v>
       </c>
       <c r="J3">
-        <v>1.019208087110867</v>
+        <v>0.9716156615138075</v>
       </c>
       <c r="K3">
-        <v>1.019148899339987</v>
+        <v>0.9718840295384538</v>
       </c>
       <c r="L3">
-        <v>1.01870779971146</v>
+        <v>0.9732155645241874</v>
       </c>
       <c r="M3">
-        <v>1.02857458687054</v>
+        <v>0.9801458730959143</v>
       </c>
       <c r="N3">
-        <v>1.010317550314682</v>
+        <v>0.993346985038408</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.01544737782087</v>
+        <v>0.9552679687595532</v>
       </c>
       <c r="D4">
-        <v>1.017482030988258</v>
+        <v>0.9655781071331091</v>
       </c>
       <c r="E4">
-        <v>1.017006017568406</v>
+        <v>0.9667626119582309</v>
       </c>
       <c r="F4">
-        <v>1.027045749846167</v>
+        <v>0.9746759173143617</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.025627403614609</v>
+        <v>1.043241269593542</v>
       </c>
       <c r="J4">
-        <v>1.020078946968908</v>
+        <v>0.9758895245447695</v>
       </c>
       <c r="K4">
-        <v>1.02001374577063</v>
+        <v>0.9761105289912771</v>
       </c>
       <c r="L4">
-        <v>1.019538984545457</v>
+        <v>0.9772794560454101</v>
       </c>
       <c r="M4">
-        <v>1.029552571846218</v>
+        <v>0.9850899062183416</v>
       </c>
       <c r="N4">
-        <v>1.010619419461055</v>
+        <v>0.9948869455997313</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015913716453364</v>
+        <v>0.9575818976323752</v>
       </c>
       <c r="D5">
-        <v>1.017898900822223</v>
+        <v>0.9675802258121936</v>
       </c>
       <c r="E5">
-        <v>1.017408740943059</v>
+        <v>0.9686964289001683</v>
       </c>
       <c r="F5">
-        <v>1.027509214354519</v>
+        <v>0.9769713974243217</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.025628156525223</v>
+        <v>1.043391901861124</v>
       </c>
       <c r="J5">
-        <v>1.02044442157123</v>
+        <v>0.9776496485124674</v>
       </c>
       <c r="K5">
-        <v>1.020376722746439</v>
+        <v>0.9778514623389829</v>
       </c>
       <c r="L5">
-        <v>1.019887822947322</v>
+        <v>0.9789534305730634</v>
       </c>
       <c r="M5">
-        <v>1.029962592260365</v>
+        <v>0.9871241333512719</v>
       </c>
       <c r="N5">
-        <v>1.010745962822157</v>
+        <v>0.9955204591559345</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015991982825428</v>
+        <v>0.9579677447699559</v>
       </c>
       <c r="D6">
-        <v>1.01796886664849</v>
+        <v>0.9679141740983144</v>
       </c>
       <c r="E6">
-        <v>1.017476332414375</v>
+        <v>0.9690189953066025</v>
       </c>
       <c r="F6">
-        <v>1.027586972631757</v>
+        <v>0.9773540992563357</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.02562824488384</v>
+        <v>1.04341673523233</v>
       </c>
       <c r="J6">
-        <v>1.020505749459904</v>
+        <v>0.9779431055969851</v>
       </c>
       <c r="K6">
-        <v>1.020437633050004</v>
+        <v>0.9781417381198628</v>
       </c>
       <c r="L6">
-        <v>1.019946360056056</v>
+        <v>0.9792325428148171</v>
       </c>
       <c r="M6">
-        <v>1.030031370893023</v>
+        <v>0.9874631741579849</v>
       </c>
       <c r="N6">
-        <v>1.01076718886517</v>
+        <v>0.9956260395696762</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.015453611342787</v>
+        <v>0.9552990686628325</v>
       </c>
       <c r="D7">
-        <v>1.017487603136696</v>
+        <v>0.9656050096933442</v>
       </c>
       <c r="E7">
-        <v>1.017011400630667</v>
+        <v>0.9667885960124727</v>
       </c>
       <c r="F7">
-        <v>1.027051946672684</v>
+        <v>0.9747067737372629</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.025627416225004</v>
+        <v>1.043243313205147</v>
       </c>
       <c r="J7">
-        <v>1.020083832937655</v>
+        <v>0.9759131839853057</v>
       </c>
       <c r="K7">
-        <v>1.020018598246746</v>
+        <v>0.9761339292367051</v>
       </c>
       <c r="L7">
-        <v>1.01954364805179</v>
+        <v>0.9773019562163638</v>
       </c>
       <c r="M7">
-        <v>1.029558054961128</v>
+        <v>0.9851172578588642</v>
       </c>
       <c r="N7">
-        <v>1.010621111758523</v>
+        <v>0.9948954640555203</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013198294515499</v>
+        <v>0.9437342530577004</v>
       </c>
       <c r="D8">
-        <v>1.015471800028863</v>
+        <v>0.9556134298178066</v>
       </c>
       <c r="E8">
-        <v>1.015063995383784</v>
+        <v>0.9571395712123928</v>
       </c>
       <c r="F8">
-        <v>1.024806930588285</v>
+        <v>0.9632261614997634</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.025618445230591</v>
+        <v>1.042450508431194</v>
       </c>
       <c r="J8">
-        <v>1.018314872639466</v>
+        <v>0.9671107861396961</v>
       </c>
       <c r="K8">
-        <v>1.018261941808386</v>
+        <v>0.9674302156667686</v>
       </c>
       <c r="L8">
-        <v>1.017855327880315</v>
+        <v>0.9689332127558715</v>
       </c>
       <c r="M8">
-        <v>1.027570096988831</v>
+        <v>0.9749284261828762</v>
       </c>
       <c r="N8">
-        <v>1.010007447386833</v>
+        <v>0.9917214884834505</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.009204262922068</v>
+        <v>0.9215451812404367</v>
       </c>
       <c r="D9">
-        <v>1.011903059276468</v>
+        <v>0.9365150119729234</v>
       </c>
       <c r="E9">
-        <v>1.011616323890894</v>
+        <v>0.9387045555547545</v>
       </c>
       <c r="F9">
-        <v>1.020817260761663</v>
+        <v>0.9411880654513458</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.025581881155255</v>
+        <v>1.040779673528085</v>
       </c>
       <c r="J9">
-        <v>1.015176561205916</v>
+        <v>0.9502087567727839</v>
       </c>
       <c r="K9">
-        <v>1.015146301527313</v>
+        <v>0.950729529493259</v>
       </c>
       <c r="L9">
-        <v>1.014860551426519</v>
+        <v>0.9528770903306256</v>
       </c>
       <c r="M9">
-        <v>1.024030175273478</v>
+        <v>0.9553132900582851</v>
       </c>
       <c r="N9">
-        <v>1.008914206688083</v>
+        <v>0.9856073252829907</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.006527283811466</v>
+        <v>0.9052279431782717</v>
       </c>
       <c r="D10">
-        <v>1.00951195047099</v>
+        <v>0.922534498047763</v>
       </c>
       <c r="E10">
-        <v>1.009306329827307</v>
+        <v>0.9252176996518996</v>
       </c>
       <c r="F10">
-        <v>1.018134002215356</v>
+        <v>0.9249996202160072</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.025543549880452</v>
+        <v>1.039461109015237</v>
       </c>
       <c r="J10">
-        <v>1.013069402028214</v>
+        <v>0.9377809721595332</v>
       </c>
       <c r="K10">
-        <v>1.013054936227039</v>
+        <v>0.9384590098311854</v>
       </c>
       <c r="L10">
-        <v>1.012850093721056</v>
+        <v>0.9410825440517556</v>
       </c>
       <c r="M10">
-        <v>1.021644672363744</v>
+        <v>0.9408692969330362</v>
       </c>
       <c r="N10">
-        <v>1.008177147931276</v>
+        <v>0.9811023942486682</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.005364524799332</v>
+        <v>0.897713905572996</v>
       </c>
       <c r="D11">
-        <v>1.008473569286867</v>
+        <v>0.9161157486282155</v>
       </c>
       <c r="E11">
-        <v>1.008303175684863</v>
+        <v>0.9190280997978428</v>
       </c>
       <c r="F11">
-        <v>1.016966362675369</v>
+        <v>0.9175559081876665</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.02552364101932</v>
+        <v>1.038835833999416</v>
       </c>
       <c r="J11">
-        <v>1.012153272680669</v>
+        <v>0.9320613025737234</v>
       </c>
       <c r="K11">
-        <v>1.012145810182201</v>
+        <v>0.9328142224317489</v>
       </c>
       <c r="L11">
-        <v>1.011976087258644</v>
+        <v>0.9356576051935597</v>
       </c>
       <c r="M11">
-        <v>1.020605491634995</v>
+        <v>0.9342202037033889</v>
       </c>
       <c r="N11">
-        <v>1.007855986833456</v>
+        <v>0.9790279781326722</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.004932064063981</v>
+        <v>0.8948462697120565</v>
       </c>
       <c r="D12">
-        <v>1.00808740046253</v>
+        <v>0.9136694198028573</v>
       </c>
       <c r="E12">
-        <v>1.007930108052128</v>
+        <v>0.9166695416147208</v>
       </c>
       <c r="F12">
-        <v>1.016531765764861</v>
+        <v>0.9147174544743327</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02551574831709</v>
+        <v>1.038594810442017</v>
       </c>
       <c r="J12">
-        <v>1.011812409358825</v>
+        <v>0.9298792608507468</v>
       </c>
       <c r="K12">
-        <v>1.011807573179005</v>
+        <v>0.9306611567216772</v>
       </c>
       <c r="L12">
-        <v>1.011650908768209</v>
+        <v>0.9335885615087876</v>
       </c>
       <c r="M12">
-        <v>1.020218540931337</v>
+        <v>0.9316837162217092</v>
       </c>
       <c r="N12">
-        <v>1.007736386633383</v>
+        <v>0.9782365380626636</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.005024854004098</v>
+        <v>0.895465020808162</v>
       </c>
       <c r="D13">
-        <v>1.00817025639555</v>
+        <v>0.914197108932131</v>
       </c>
       <c r="E13">
-        <v>1.008010152986128</v>
+        <v>0.9171782772686198</v>
       </c>
       <c r="F13">
-        <v>1.016625028530645</v>
+        <v>0.9153297910990132</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.025517463852392</v>
+        <v>1.038646918609908</v>
       </c>
       <c r="J13">
-        <v>1.01188555181133</v>
+        <v>0.9303500396547733</v>
       </c>
       <c r="K13">
-        <v>1.011880151142411</v>
+        <v>0.9311256649036471</v>
       </c>
       <c r="L13">
-        <v>1.011720685013948</v>
+        <v>0.9340349344729315</v>
       </c>
       <c r="M13">
-        <v>1.020301586524168</v>
+        <v>0.9322309553169718</v>
       </c>
       <c r="N13">
-        <v>1.007762055236113</v>
+        <v>0.9784072929786403</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.005328788994164</v>
+        <v>0.8974784879779825</v>
       </c>
       <c r="D14">
-        <v>1.008441658081015</v>
+        <v>0.9159148486400571</v>
       </c>
       <c r="E14">
-        <v>1.008272347090997</v>
+        <v>0.9188343985827503</v>
       </c>
       <c r="F14">
-        <v>1.016930456881038</v>
+        <v>0.917322834571792</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.025522998759562</v>
+        <v>1.038816093711419</v>
       </c>
       <c r="J14">
-        <v>1.012125108563521</v>
+        <v>0.9318821505628652</v>
       </c>
       <c r="K14">
-        <v>1.012117862646188</v>
+        <v>0.9326374409650259</v>
       </c>
       <c r="L14">
-        <v>1.011949218863701</v>
+        <v>0.9354877189413118</v>
       </c>
       <c r="M14">
-        <v>1.020573525691029</v>
+        <v>0.9340119458870775</v>
       </c>
       <c r="N14">
-        <v>1.007846106927079</v>
+        <v>0.9789629990030542</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.005515978589962</v>
+        <v>0.8987085969132926</v>
       </c>
       <c r="D15">
-        <v>1.008608815180387</v>
+        <v>0.9169647319227352</v>
       </c>
       <c r="E15">
-        <v>1.008433833277086</v>
+        <v>0.9198466798772211</v>
       </c>
       <c r="F15">
-        <v>1.017118523782957</v>
+        <v>0.918540794958745</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.025526343046663</v>
+        <v>1.038919146064631</v>
       </c>
       <c r="J15">
-        <v>1.012272631159239</v>
+        <v>0.932818293587261</v>
       </c>
       <c r="K15">
-        <v>1.012264251641822</v>
+        <v>0.9335612136796612</v>
       </c>
       <c r="L15">
-        <v>1.012089955015729</v>
+        <v>0.9363754676094345</v>
       </c>
       <c r="M15">
-        <v>1.020740949694357</v>
+        <v>0.9351001861027323</v>
       </c>
       <c r="N15">
-        <v>1.007897853169119</v>
+        <v>0.9793025401896042</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.006604374720592</v>
+        <v>0.9057164294127729</v>
       </c>
       <c r="D16">
-        <v>1.009580799621898</v>
+        <v>0.9229522078204753</v>
       </c>
       <c r="E16">
-        <v>1.009372843322618</v>
+        <v>0.9256205534503104</v>
       </c>
       <c r="F16">
-        <v>1.018211371609603</v>
+        <v>0.9254838158235793</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.025544801387166</v>
+        <v>1.039501412592909</v>
       </c>
       <c r="J16">
-        <v>1.013130123053414</v>
+        <v>0.9381528984401021</v>
       </c>
       <c r="K16">
-        <v>1.013115195954131</v>
+        <v>0.9388261208497621</v>
       </c>
       <c r="L16">
-        <v>1.012908024541931</v>
+        <v>0.9414353779813724</v>
       </c>
       <c r="M16">
-        <v>1.021713506583702</v>
+        <v>0.9413016572891441</v>
       </c>
       <c r="N16">
-        <v>1.008198419590101</v>
+        <v>0.9812372711420788</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.007286117882089</v>
+        <v>0.9099862087984643</v>
       </c>
       <c r="D17">
-        <v>1.010189682105837</v>
+        <v>0.9266055326294742</v>
       </c>
       <c r="E17">
-        <v>1.009961070128389</v>
+        <v>0.9291442327017778</v>
       </c>
       <c r="F17">
-        <v>1.01889532950999</v>
+        <v>0.9297173931262998</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.025555493191461</v>
+        <v>1.039851713677457</v>
       </c>
       <c r="J17">
-        <v>1.013667000569308</v>
+        <v>0.9414042437948633</v>
       </c>
       <c r="K17">
-        <v>1.013648010564697</v>
+        <v>0.9420356547401313</v>
       </c>
       <c r="L17">
-        <v>1.013420241134484</v>
+        <v>0.9445201943812074</v>
       </c>
       <c r="M17">
-        <v>1.022321884159034</v>
+        <v>0.9450811812428789</v>
       </c>
       <c r="N17">
-        <v>1.008386415573326</v>
+        <v>0.9824162410243499</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.007683420106069</v>
+        <v>0.9124341248155777</v>
       </c>
       <c r="D18">
-        <v>1.010544543034266</v>
+        <v>0.9287017857427776</v>
       </c>
       <c r="E18">
-        <v>1.010303892918888</v>
+        <v>0.9311663245440286</v>
       </c>
       <c r="F18">
-        <v>1.019293714907617</v>
+        <v>0.9321455291530381</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.025561410076097</v>
+        <v>1.040050842874554</v>
       </c>
       <c r="J18">
-        <v>1.013979794593293</v>
+        <v>0.9432685630602055</v>
       </c>
       <c r="K18">
-        <v>1.01395845061309</v>
+        <v>0.9438762297952263</v>
       </c>
       <c r="L18">
-        <v>1.013718674969692</v>
+        <v>0.9462893277152948</v>
       </c>
       <c r="M18">
-        <v>1.022676139238386</v>
+        <v>0.9472481936877818</v>
       </c>
       <c r="N18">
-        <v>1.00849587685598</v>
+        <v>0.983092151437215</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.00781883157661</v>
+        <v>0.9132618307787586</v>
       </c>
       <c r="D19">
-        <v>1.010665492709685</v>
+        <v>0.9294108722612374</v>
       </c>
       <c r="E19">
-        <v>1.010420739570279</v>
+        <v>0.9318503621267815</v>
       </c>
       <c r="F19">
-        <v>1.019429460279187</v>
+        <v>0.9329666939632251</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.025563373399619</v>
+        <v>1.040117876179086</v>
       </c>
       <c r="J19">
-        <v>1.014086389043117</v>
+        <v>0.9438989794319046</v>
       </c>
       <c r="K19">
-        <v>1.014064245098002</v>
+        <v>0.9444986553398975</v>
       </c>
       <c r="L19">
-        <v>1.01382037702934</v>
+        <v>0.9468876066045124</v>
       </c>
       <c r="M19">
-        <v>1.022796829527244</v>
+        <v>0.9479809278523079</v>
       </c>
       <c r="N19">
-        <v>1.0085331676296</v>
+        <v>0.9833206877181834</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.007213009317406</v>
+        <v>0.9095325663341062</v>
       </c>
       <c r="D20">
-        <v>1.01012438487267</v>
+        <v>0.9262171996286286</v>
       </c>
       <c r="E20">
-        <v>1.009897988017736</v>
+        <v>0.9287696563005923</v>
       </c>
       <c r="F20">
-        <v>1.01882200489584</v>
+        <v>0.9292674909425853</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.025554379107118</v>
+        <v>1.039814671108604</v>
       </c>
       <c r="J20">
-        <v>1.013609435775806</v>
+        <v>0.9410587732925655</v>
       </c>
       <c r="K20">
-        <v>1.013590880041246</v>
+        <v>0.9416946026971155</v>
       </c>
       <c r="L20">
-        <v>1.013365319724451</v>
+        <v>0.9441923865314862</v>
       </c>
       <c r="M20">
-        <v>1.022256673302155</v>
+        <v>0.9446796040817266</v>
       </c>
       <c r="N20">
-        <v>1.008366265441878</v>
+        <v>0.9822909807550264</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.005239303326624</v>
+        <v>0.89688776930278</v>
       </c>
       <c r="D21">
-        <v>1.008361750083004</v>
+        <v>0.9154107973952118</v>
       </c>
       <c r="E21">
-        <v>1.00819515004035</v>
+        <v>0.9183484160486095</v>
       </c>
       <c r="F21">
-        <v>1.016840540370336</v>
+        <v>0.9167380376264447</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.025521382607082</v>
+        <v>1.038766523364124</v>
       </c>
       <c r="J21">
-        <v>1.012054580975586</v>
+        <v>0.9314326295107664</v>
       </c>
       <c r="K21">
-        <v>1.01204787774613</v>
+        <v>0.9321938746651682</v>
       </c>
       <c r="L21">
-        <v>1.011881936175436</v>
+        <v>0.9350614563659005</v>
       </c>
       <c r="M21">
-        <v>1.020493472804374</v>
+        <v>0.9334893970412004</v>
       </c>
       <c r="N21">
-        <v>1.007821364302786</v>
+        <v>0.9787999554983453</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.003995105439615</v>
+        <v>0.8884883724793042</v>
       </c>
       <c r="D22">
-        <v>1.007250797516983</v>
+        <v>0.9082522613543758</v>
       </c>
       <c r="E22">
-        <v>1.007121888762575</v>
+        <v>0.9114476286686346</v>
       </c>
       <c r="F22">
-        <v>1.015589594384469</v>
+        <v>0.9084294669346369</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025497756943018</v>
+        <v>1.038056388069092</v>
       </c>
       <c r="J22">
-        <v>1.011073665111369</v>
+        <v>0.9250432718848679</v>
       </c>
       <c r="K22">
-        <v>1.01107455868811</v>
+        <v>0.9258901848622272</v>
       </c>
       <c r="L22">
-        <v>1.010946180410871</v>
+        <v>0.929004123546408</v>
       </c>
       <c r="M22">
-        <v>1.01937935904964</v>
+        <v>0.9260628543622096</v>
       </c>
       <c r="N22">
-        <v>1.007476986657298</v>
+        <v>0.9764825314853471</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.004654992461465</v>
+        <v>0.8929871998744218</v>
       </c>
       <c r="D23">
-        <v>1.00783999674686</v>
+        <v>0.9120844711019306</v>
       </c>
       <c r="E23">
-        <v>1.007691097918564</v>
+        <v>0.9151415902470014</v>
       </c>
       <c r="F23">
-        <v>1.016253235488904</v>
+        <v>0.9128780603119668</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025510554367596</v>
+        <v>1.038437924458451</v>
       </c>
       <c r="J23">
-        <v>1.011593986253805</v>
+        <v>0.9284649247344084</v>
       </c>
       <c r="K23">
-        <v>1.011590838814952</v>
+        <v>0.9292657218790643</v>
       </c>
       <c r="L23">
-        <v>1.011442539868393</v>
+        <v>0.9322476341417741</v>
       </c>
       <c r="M23">
-        <v>1.019970500050908</v>
+        <v>0.9300397231454096</v>
       </c>
       <c r="N23">
-        <v>1.007659717762466</v>
+        <v>0.9777235494339215</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.007246045002887</v>
+        <v>0.9097376787255018</v>
       </c>
       <c r="D24">
-        <v>1.010153890777343</v>
+        <v>0.9263927771990905</v>
       </c>
       <c r="E24">
-        <v>1.009926492973108</v>
+        <v>0.9289390133729127</v>
       </c>
       <c r="F24">
-        <v>1.018855138849662</v>
+        <v>0.9294709091975336</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.02555488350111</v>
+        <v>1.039831425061879</v>
       </c>
       <c r="J24">
-        <v>1.013635447932779</v>
+        <v>0.9412149753584234</v>
       </c>
       <c r="K24">
-        <v>1.013616695921315</v>
+        <v>0.9418488062726318</v>
       </c>
       <c r="L24">
-        <v>1.013390137375741</v>
+        <v>0.9443406016184971</v>
       </c>
       <c r="M24">
-        <v>1.022286141139235</v>
+        <v>0.9448611749163428</v>
       </c>
       <c r="N24">
-        <v>1.008375371017097</v>
+        <v>0.9823476166585275</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010239266101591</v>
+        <v>0.9275247886181354</v>
       </c>
       <c r="D25">
-        <v>1.012827713909171</v>
+        <v>0.9416521225560318</v>
       </c>
       <c r="E25">
-        <v>1.012509611077539</v>
+        <v>0.9436620372239199</v>
       </c>
       <c r="F25">
-        <v>1.021852761726391</v>
+        <v>0.9471259278007275</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.025593793441133</v>
+        <v>1.0412459966518</v>
       </c>
       <c r="J25">
-        <v>1.01599047247932</v>
+        <v>0.9547641552221988</v>
       </c>
       <c r="K25">
-        <v>1.015954232988888</v>
+        <v>0.9552291993457317</v>
       </c>
       <c r="L25">
-        <v>1.015637180550932</v>
+        <v>0.9572027823053315</v>
       </c>
       <c r="M25">
-        <v>1.024949778147189</v>
+        <v>0.9606045286080864</v>
       </c>
       <c r="N25">
-        <v>1.009198268687294</v>
+        <v>0.9872570792044186</v>
       </c>
     </row>
   </sheetData>
